--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2755.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2755.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.161922486076743</v>
+        <v>1.902300119400024</v>
       </c>
       <c r="B1">
-        <v>2.420907126365725</v>
+        <v>2.253734350204468</v>
       </c>
       <c r="C1">
-        <v>-1</v>
+        <v>2.436330556869507</v>
       </c>
       <c r="D1">
-        <v>2.368496479711584</v>
+        <v>3.459383487701416</v>
       </c>
       <c r="E1">
-        <v>1.223646387909461</v>
+        <v>1.22719669342041</v>
       </c>
     </row>
   </sheetData>
